--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">ссылка</t>
+  </si>
   <si>
     <t xml:space="preserve">уровень</t>
   </si>
@@ -28,7 +31,7 @@
     <t xml:space="preserve">грамматика</t>
   </si>
   <si>
-    <t xml:space="preserve">ссылка</t>
+    <t xml:space="preserve">&lt;a href="tverits.html"&gt;Хлеб&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">A1</t>
@@ -37,7 +40,7 @@
     <t xml:space="preserve">Родительный падеж</t>
   </si>
   <si>
-    <t xml:space="preserve">[Хлеб](https://agricolamz.github.io/2023.02.16_lets_learn_quarto/second_example.html)</t>
+    <t xml:space="preserve">&lt;a href="maksimova.html"&gt;Билан&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">A2</t>
@@ -67,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -155,30 +159,30 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -186,41 +190,41 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
